--- a/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/DAOのクラス仕様書(exampleDAO).xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/DAOのクラス仕様書(exampleDAO).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B79DEF6-FB03-4A16-9E75-10BEE3BAEF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9885" tabRatio="727"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（）'!$A$1:$BI$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（DAO）'!$A$1:$BI$33</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -220,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
@@ -667,6 +679,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,13 +699,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,7 +711,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -713,9 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,6 +827,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -850,6 +879,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1025,40 +1071,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="2"/>
+    <col min="1" max="16384" width="2.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
       <c r="R1" s="51" t="s">
         <v>2</v>
       </c>
@@ -1071,11 +1117,11 @@
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
       <c r="AA1" s="51"/>
-      <c r="AB1" s="57" t="s">
+      <c r="AB1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
       <c r="AE1" s="51"/>
       <c r="AF1" s="51"/>
       <c r="AG1" s="51"/>
@@ -1088,11 +1134,11 @@
       <c r="AN1" s="51"/>
       <c r="AO1" s="51"/>
       <c r="AP1" s="51"/>
-      <c r="AQ1" s="57" t="s">
+      <c r="AQ1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
       <c r="AT1" s="51" t="s">
         <v>5</v>
       </c>
@@ -1102,19 +1148,19 @@
       <c r="AX1" s="51"/>
       <c r="AY1" s="51"/>
       <c r="AZ1" s="51"/>
-      <c r="BA1" s="57" t="s">
+      <c r="BA1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="58">
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="59">
         <v>45000</v>
       </c>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1313,41 +1359,41 @@
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
     </row>
-    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57" t="s">
+    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="57" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
       <c r="AE2" s="51" t="str">
         <f>G5</f>
         <v>DAO</v>
@@ -1363,11 +1409,11 @@
       <c r="AN2" s="51"/>
       <c r="AO2" s="51"/>
       <c r="AP2" s="51"/>
-      <c r="AQ2" s="57" t="s">
+      <c r="AQ2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
       <c r="AT2" s="51"/>
       <c r="AU2" s="51"/>
       <c r="AV2" s="51"/>
@@ -1375,17 +1421,17 @@
       <c r="AX2" s="51"/>
       <c r="AY2" s="51"/>
       <c r="AZ2" s="51"/>
-      <c r="BA2" s="57" t="s">
+      <c r="BA2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1584,7 +1630,7 @@
       <c r="IW2" s="1"/>
       <c r="IX2" s="1"/>
     </row>
-    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
@@ -1593,65 +1639,65 @@
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
-      <c r="BI4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="57"/>
     </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
@@ -1660,65 +1706,65 @@
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="54"/>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="54"/>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="54"/>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="54"/>
-      <c r="BD5" s="54"/>
-      <c r="BE5" s="54"/>
-      <c r="BF5" s="54"/>
-      <c r="BG5" s="54"/>
-      <c r="BH5" s="54"/>
-      <c r="BI5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="57"/>
     </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>27</v>
       </c>
@@ -1727,33 +1773,33 @@
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
       <c r="F6" s="50"/>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="57"/>
       <c r="AF6" s="50" t="s">
         <v>28</v>
       </c>
@@ -1762,34 +1808,34 @@
       <c r="AI6" s="50"/>
       <c r="AJ6" s="50"/>
       <c r="AK6" s="50"/>
-      <c r="AL6" s="52" t="s">
+      <c r="AL6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="52"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="52"/>
-      <c r="AP6" s="52"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="54"/>
+      <c r="AW6" s="54"/>
+      <c r="AX6" s="54"/>
+      <c r="AY6" s="54"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="54"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="54"/>
+      <c r="BD6" s="54"/>
+      <c r="BE6" s="54"/>
+      <c r="BF6" s="54"/>
+      <c r="BG6" s="54"/>
+      <c r="BH6" s="54"/>
+      <c r="BI6" s="54"/>
     </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>14</v>
       </c>
@@ -1862,7 +1908,7 @@
       <c r="BH8" s="50"/>
       <c r="BI8" s="50"/>
     </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>35</v>
       </c>
@@ -1935,7 +1981,7 @@
       <c r="BH9" s="49"/>
       <c r="BI9" s="49"/>
     </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -1998,7 +2044,7 @@
       <c r="BH10" s="49"/>
       <c r="BI10" s="49"/>
     </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -2061,7 +2107,7 @@
       <c r="BH11" s="49"/>
       <c r="BI11" s="49"/>
     </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
         <v>19</v>
       </c>
@@ -2126,7 +2172,7 @@
       <c r="BH13" s="50"/>
       <c r="BI13" s="50"/>
     </row>
-    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
@@ -2189,7 +2235,7 @@
       <c r="BH14" s="49"/>
       <c r="BI14" s="49"/>
     </row>
-    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -2252,7 +2298,7 @@
       <c r="BH15" s="49"/>
       <c r="BI15" s="49"/>
     </row>
-    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
@@ -2315,7 +2361,7 @@
       <c r="BH16" s="49"/>
       <c r="BI16" s="49"/>
     </row>
-    <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="49"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -2378,7 +2424,7 @@
       <c r="BH17" s="49"/>
       <c r="BI17" s="49"/>
     </row>
-    <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
@@ -2441,7 +2487,7 @@
       <c r="BH18" s="49"/>
       <c r="BI18" s="49"/>
     </row>
-    <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -2506,13 +2552,30 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
-    <mergeCell ref="A14:BI19"/>
-    <mergeCell ref="A13:BI13"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="Q11:X11"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="Y9:AF9"/>
+    <mergeCell ref="AG9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="Q8:X8"/>
+    <mergeCell ref="Y8:AF8"/>
+    <mergeCell ref="AG8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="AF6:AK6"/>
+    <mergeCell ref="AL6:BI6"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="G6:AE6"/>
     <mergeCell ref="AE1:AP1"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="A10:P10"/>
@@ -2529,30 +2592,13 @@
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="AF6:AK6"/>
-    <mergeCell ref="AL6:BI6"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="G6:AE6"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="Q8:X8"/>
-    <mergeCell ref="Y8:AF8"/>
-    <mergeCell ref="AG8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="Y9:AF9"/>
-    <mergeCell ref="AG9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
+    <mergeCell ref="A14:BI19"/>
+    <mergeCell ref="A13:BI13"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="Q11:X11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -2563,40 +2609,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IX35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="2"/>
+    <col min="1" max="16384" width="2.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
       <c r="R1" s="51" t="s">
         <v>2</v>
       </c>
@@ -2609,11 +2655,11 @@
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
       <c r="AA1" s="51"/>
-      <c r="AB1" s="57" t="s">
+      <c r="AB1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
       <c r="AE1" s="51">
         <f>クラス仕様!AE1</f>
         <v>0</v>
@@ -2629,11 +2675,11 @@
       <c r="AN1" s="51"/>
       <c r="AO1" s="51"/>
       <c r="AP1" s="51"/>
-      <c r="AQ1" s="57" t="s">
+      <c r="AQ1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
       <c r="AT1" s="51" t="s">
         <v>5</v>
       </c>
@@ -2643,19 +2689,19 @@
       <c r="AX1" s="51"/>
       <c r="AY1" s="51"/>
       <c r="AZ1" s="51"/>
-      <c r="BA1" s="57" t="s">
+      <c r="BA1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="58">
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="59">
         <v>45000</v>
       </c>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2854,41 +2900,41 @@
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
     </row>
-    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57" t="s">
+    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="57" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
       <c r="AE2" s="51" t="str">
         <f>クラス仕様!G5</f>
         <v>DAO</v>
@@ -2904,11 +2950,11 @@
       <c r="AN2" s="51"/>
       <c r="AO2" s="51"/>
       <c r="AP2" s="51"/>
-      <c r="AQ2" s="57" t="s">
+      <c r="AQ2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
       <c r="AT2" s="51"/>
       <c r="AU2" s="51"/>
       <c r="AV2" s="51"/>
@@ -2916,17 +2962,17 @@
       <c r="AX2" s="51"/>
       <c r="AY2" s="51"/>
       <c r="AZ2" s="51"/>
-      <c r="BA2" s="57" t="s">
+      <c r="BA2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -3125,7 +3171,7 @@
       <c r="IW2" s="1"/>
       <c r="IX2" s="1"/>
     </row>
-    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
@@ -3134,63 +3180,63 @@
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
+      <c r="BI4" s="54"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3389,7 +3435,7 @@
       <c r="IW4" s="1"/>
       <c r="IX4" s="1"/>
     </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
@@ -3398,64 +3444,64 @@
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="52" t="str">
+      <c r="G5" s="54" t="str">
         <f>クラス仕様!G5</f>
         <v>DAO</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="52"/>
-      <c r="BI5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="54"/>
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="54"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="54"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="54"/>
+      <c r="BF5" s="54"/>
+      <c r="BG5" s="54"/>
+      <c r="BH5" s="54"/>
+      <c r="BI5" s="54"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -3654,7 +3700,7 @@
       <c r="IW5" s="1"/>
       <c r="IX5" s="1"/>
     </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3914,76 +3960,76 @@
       <c r="IW6" s="1"/>
       <c r="IX6" s="1"/>
     </row>
-    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62" t="s">
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="62"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="62"/>
-      <c r="BA7" s="62"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="62"/>
-      <c r="BE7" s="62"/>
-      <c r="BF7" s="62"/>
-      <c r="BG7" s="62"/>
-      <c r="BH7" s="62"/>
-      <c r="BI7" s="62"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="60"/>
+      <c r="BC7" s="60"/>
+      <c r="BD7" s="60"/>
+      <c r="BE7" s="60"/>
+      <c r="BF7" s="60"/>
+      <c r="BG7" s="60"/>
+      <c r="BH7" s="60"/>
+      <c r="BI7" s="60"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -4182,76 +4228,76 @@
       <c r="IW7" s="1"/>
       <c r="IX7" s="1"/>
     </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61" t="s">
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="61"/>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="61"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="61"/>
-      <c r="AU8" s="61"/>
-      <c r="AV8" s="61"/>
-      <c r="AW8" s="61"/>
-      <c r="AX8" s="61"/>
-      <c r="AY8" s="61"/>
-      <c r="AZ8" s="61"/>
-      <c r="BA8" s="61"/>
-      <c r="BB8" s="61"/>
-      <c r="BC8" s="61"/>
-      <c r="BD8" s="61"/>
-      <c r="BE8" s="61"/>
-      <c r="BF8" s="61"/>
-      <c r="BG8" s="61"/>
-      <c r="BH8" s="61"/>
-      <c r="BI8" s="61"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="62"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -4450,68 +4496,68 @@
       <c r="IW8" s="1"/>
       <c r="IX8" s="1"/>
     </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="61"/>
-      <c r="BA9" s="61"/>
-      <c r="BB9" s="61"/>
-      <c r="BC9" s="61"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="61"/>
-      <c r="BH9" s="61"/>
-      <c r="BI9" s="61"/>
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="62"/>
+      <c r="BA9" s="62"/>
+      <c r="BB9" s="62"/>
+      <c r="BC9" s="62"/>
+      <c r="BD9" s="62"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="62"/>
+      <c r="BG9" s="62"/>
+      <c r="BH9" s="62"/>
+      <c r="BI9" s="62"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -4710,7 +4756,7 @@
       <c r="IW9" s="1"/>
       <c r="IX9" s="1"/>
     </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -4970,7 +5016,7 @@
       <c r="IW10" s="1"/>
       <c r="IX10" s="1"/>
     </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -5230,7 +5276,7 @@
       <c r="IW11" s="1"/>
       <c r="IX11" s="1"/>
     </row>
-    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5490,7 +5536,7 @@
       <c r="IW12" s="1"/>
       <c r="IX12" s="1"/>
     </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5750,74 +5796,74 @@
       <c r="IW13" s="1"/>
       <c r="IX13" s="1"/>
     </row>
-    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62" t="s">
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="60"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="60"/>
+      <c r="AT14" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="62"/>
-      <c r="BB14" s="62"/>
-      <c r="BC14" s="62"/>
-      <c r="BD14" s="62"/>
-      <c r="BE14" s="62"/>
-      <c r="BF14" s="62"/>
-      <c r="BG14" s="62"/>
-      <c r="BH14" s="62"/>
-      <c r="BI14" s="62"/>
+      <c r="AU14" s="60"/>
+      <c r="AV14" s="60"/>
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="60"/>
+      <c r="BB14" s="60"/>
+      <c r="BC14" s="60"/>
+      <c r="BD14" s="60"/>
+      <c r="BE14" s="60"/>
+      <c r="BF14" s="60"/>
+      <c r="BG14" s="60"/>
+      <c r="BH14" s="60"/>
+      <c r="BI14" s="60"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -6016,7 +6062,7 @@
       <c r="IW14" s="1"/>
       <c r="IX14" s="1"/>
     </row>
-    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
@@ -6282,7 +6328,7 @@
       <c r="IW15" s="1"/>
       <c r="IX15" s="1"/>
     </row>
-    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="D16" s="15"/>
@@ -6541,7 +6587,7 @@
       <c r="IW16" s="1"/>
       <c r="IX16" s="1"/>
     </row>
-    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="D17" s="15"/>
@@ -6799,7 +6845,7 @@
       <c r="IW17" s="1"/>
       <c r="IX17" s="1"/>
     </row>
-    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="D18" s="15"/>
@@ -7058,7 +7104,7 @@
       <c r="IW18" s="1"/>
       <c r="IX18" s="1"/>
     </row>
-    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="D19" s="15"/>
@@ -7317,7 +7363,7 @@
       <c r="IW19" s="1"/>
       <c r="IX19" s="1"/>
     </row>
-    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="D20" s="15"/>
@@ -7576,7 +7622,7 @@
       <c r="IW20" s="1"/>
       <c r="IX20" s="1"/>
     </row>
-    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="28"/>
       <c r="C21" s="3"/>
@@ -7826,7 +7872,7 @@
       <c r="IW21" s="1"/>
       <c r="IX21" s="1"/>
     </row>
-    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
@@ -8079,7 +8125,7 @@
       <c r="IW22" s="1"/>
       <c r="IX22" s="1"/>
     </row>
-    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -8336,7 +8382,7 @@
       <c r="IW23" s="1"/>
       <c r="IX23" s="1"/>
     </row>
-    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -8593,7 +8639,7 @@
       <c r="IW24" s="1"/>
       <c r="IX24" s="1"/>
     </row>
-    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -8853,7 +8899,7 @@
       <c r="IW25" s="1"/>
       <c r="IX25" s="1"/>
     </row>
-    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -9105,7 +9151,7 @@
       <c r="IW26" s="1"/>
       <c r="IX26" s="1"/>
     </row>
-    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -9357,7 +9403,7 @@
       <c r="IW27" s="1"/>
       <c r="IX27" s="1"/>
     </row>
-    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="28"/>
       <c r="C28" s="3"/>
@@ -9606,7 +9652,7 @@
       <c r="IW28" s="1"/>
       <c r="IX28" s="1"/>
     </row>
-    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -9853,7 +9899,7 @@
       <c r="IW29" s="1"/>
       <c r="IX29" s="1"/>
     </row>
-    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -10101,7 +10147,7 @@
       <c r="IW30" s="1"/>
       <c r="IX30" s="1"/>
     </row>
-    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="28"/>
       <c r="C31" s="3"/>
@@ -10353,7 +10399,7 @@
       <c r="IW31" s="1"/>
       <c r="IX31" s="1"/>
     </row>
-    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="28"/>
       <c r="C32" s="3"/>
@@ -10602,7 +10648,7 @@
       <c r="IW32" s="1"/>
       <c r="IX32" s="1"/>
     </row>
-    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -10862,7 +10908,7 @@
       <c r="IW33" s="1"/>
       <c r="IX33" s="1"/>
     </row>
-    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
@@ -11122,7 +11168,7 @@
       <c r="IW34" s="1"/>
       <c r="IX34" s="1"/>
     </row>
-    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
@@ -11384,25 +11430,15 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="P14:AS14"/>
-    <mergeCell ref="AT14:BI14"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="P9:AD9"/>
@@ -11419,22 +11455,32 @@
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="P14:AS14"/>
+    <mergeCell ref="AT14:BI14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A10:A12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A10:A12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"引数,戻り値,例外,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"引数,戻り値,例外"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11446,40 +11492,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IX37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="2"/>
+    <col min="1" max="16384" width="2.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
       <c r="R1" s="51" t="s">
         <v>2</v>
       </c>
@@ -11492,11 +11538,11 @@
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
       <c r="AA1" s="51"/>
-      <c r="AB1" s="57" t="s">
+      <c r="AB1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
       <c r="AE1" s="51">
         <f>クラス仕様!AE1</f>
         <v>0</v>
@@ -11512,11 +11558,11 @@
       <c r="AN1" s="51"/>
       <c r="AO1" s="51"/>
       <c r="AP1" s="51"/>
-      <c r="AQ1" s="57" t="s">
+      <c r="AQ1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
       <c r="AT1" s="51" t="s">
         <v>5</v>
       </c>
@@ -11526,19 +11572,19 @@
       <c r="AX1" s="51"/>
       <c r="AY1" s="51"/>
       <c r="AZ1" s="51"/>
-      <c r="BA1" s="57" t="s">
+      <c r="BA1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="58">
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="59">
         <v>45000</v>
       </c>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -11737,41 +11783,41 @@
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
     </row>
-    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57" t="s">
+    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="57" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
       <c r="AE2" s="51" t="str">
         <f>クラス仕様!G5</f>
         <v>DAO</v>
@@ -11787,11 +11833,11 @@
       <c r="AN2" s="51"/>
       <c r="AO2" s="51"/>
       <c r="AP2" s="51"/>
-      <c r="AQ2" s="57" t="s">
+      <c r="AQ2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
       <c r="AT2" s="51"/>
       <c r="AU2" s="51"/>
       <c r="AV2" s="51"/>
@@ -11799,17 +11845,17 @@
       <c r="AX2" s="51"/>
       <c r="AY2" s="51"/>
       <c r="AZ2" s="51"/>
-      <c r="BA2" s="57" t="s">
+      <c r="BA2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -12008,7 +12054,7 @@
       <c r="IW2" s="1"/>
       <c r="IX2" s="1"/>
     </row>
-    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
@@ -12017,61 +12063,61 @@
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
+      <c r="BI4" s="54"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -12270,7 +12316,7 @@
       <c r="IW4" s="1"/>
       <c r="IX4" s="1"/>
     </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
@@ -12279,61 +12325,61 @@
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="52"/>
-      <c r="BI5" s="52"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="54"/>
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="54"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="54"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="54"/>
+      <c r="BF5" s="54"/>
+      <c r="BG5" s="54"/>
+      <c r="BH5" s="54"/>
+      <c r="BI5" s="54"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -12532,7 +12578,7 @@
       <c r="IW5" s="1"/>
       <c r="IX5" s="1"/>
     </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12792,76 +12838,76 @@
       <c r="IW6" s="1"/>
       <c r="IX6" s="1"/>
     </row>
-    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62" t="s">
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="62"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="62"/>
-      <c r="BA7" s="62"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="62"/>
-      <c r="BE7" s="62"/>
-      <c r="BF7" s="62"/>
-      <c r="BG7" s="62"/>
-      <c r="BH7" s="62"/>
-      <c r="BI7" s="62"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="60"/>
+      <c r="BC7" s="60"/>
+      <c r="BD7" s="60"/>
+      <c r="BE7" s="60"/>
+      <c r="BF7" s="60"/>
+      <c r="BG7" s="60"/>
+      <c r="BH7" s="60"/>
+      <c r="BI7" s="60"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -13060,72 +13106,72 @@
       <c r="IW7" s="1"/>
       <c r="IX7" s="1"/>
     </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="61"/>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="61"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="61"/>
-      <c r="AU8" s="61"/>
-      <c r="AV8" s="61"/>
-      <c r="AW8" s="61"/>
-      <c r="AX8" s="61"/>
-      <c r="AY8" s="61"/>
-      <c r="AZ8" s="61"/>
-      <c r="BA8" s="61"/>
-      <c r="BB8" s="61"/>
-      <c r="BC8" s="61"/>
-      <c r="BD8" s="61"/>
-      <c r="BE8" s="61"/>
-      <c r="BF8" s="61"/>
-      <c r="BG8" s="61"/>
-      <c r="BH8" s="61"/>
-      <c r="BI8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="62"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -13324,72 +13370,72 @@
       <c r="IW8" s="1"/>
       <c r="IX8" s="1"/>
     </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="61"/>
-      <c r="BA9" s="61"/>
-      <c r="BB9" s="61"/>
-      <c r="BC9" s="61"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="61"/>
-      <c r="BH9" s="61"/>
-      <c r="BI9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="62"/>
+      <c r="BA9" s="62"/>
+      <c r="BB9" s="62"/>
+      <c r="BC9" s="62"/>
+      <c r="BD9" s="62"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="62"/>
+      <c r="BG9" s="62"/>
+      <c r="BH9" s="62"/>
+      <c r="BI9" s="62"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -13588,74 +13634,74 @@
       <c r="IW9" s="1"/>
       <c r="IX9" s="1"/>
     </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61" t="s">
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="61"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="61"/>
-      <c r="BA10" s="61"/>
-      <c r="BB10" s="61"/>
-      <c r="BC10" s="61"/>
-      <c r="BD10" s="61"/>
-      <c r="BE10" s="61"/>
-      <c r="BF10" s="61"/>
-      <c r="BG10" s="61"/>
-      <c r="BH10" s="61"/>
-      <c r="BI10" s="61"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="62"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="62"/>
+      <c r="AU10" s="62"/>
+      <c r="AV10" s="62"/>
+      <c r="AW10" s="62"/>
+      <c r="AX10" s="62"/>
+      <c r="AY10" s="62"/>
+      <c r="AZ10" s="62"/>
+      <c r="BA10" s="62"/>
+      <c r="BB10" s="62"/>
+      <c r="BC10" s="62"/>
+      <c r="BD10" s="62"/>
+      <c r="BE10" s="62"/>
+      <c r="BF10" s="62"/>
+      <c r="BG10" s="62"/>
+      <c r="BH10" s="62"/>
+      <c r="BI10" s="62"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -13854,7 +13900,7 @@
       <c r="IW10" s="1"/>
       <c r="IX10" s="1"/>
     </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -14114,7 +14160,7 @@
       <c r="IW11" s="1"/>
       <c r="IX11" s="1"/>
     </row>
-    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -14374,72 +14420,72 @@
       <c r="IW12" s="1"/>
       <c r="IX12" s="1"/>
     </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="68"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="68"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="68"/>
-      <c r="AU13" s="68"/>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="68"/>
-      <c r="BF13" s="68"/>
-      <c r="BG13" s="68"/>
-      <c r="BH13" s="68"/>
-      <c r="BI13" s="68"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="63"/>
+      <c r="AM13" s="63"/>
+      <c r="AN13" s="63"/>
+      <c r="AO13" s="63"/>
+      <c r="AP13" s="63"/>
+      <c r="AQ13" s="63"/>
+      <c r="AR13" s="63"/>
+      <c r="AS13" s="63"/>
+      <c r="AT13" s="63"/>
+      <c r="AU13" s="63"/>
+      <c r="AV13" s="63"/>
+      <c r="AW13" s="63"/>
+      <c r="AX13" s="63"/>
+      <c r="AY13" s="63"/>
+      <c r="AZ13" s="63"/>
+      <c r="BA13" s="63"/>
+      <c r="BB13" s="63"/>
+      <c r="BC13" s="63"/>
+      <c r="BD13" s="63"/>
+      <c r="BE13" s="63"/>
+      <c r="BF13" s="63"/>
+      <c r="BG13" s="63"/>
+      <c r="BH13" s="63"/>
+      <c r="BI13" s="63"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -14638,70 +14684,70 @@
       <c r="IW13" s="1"/>
       <c r="IX13" s="1"/>
     </row>
-    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="66"/>
-      <c r="BA14" s="66"/>
-      <c r="BB14" s="66"/>
-      <c r="BC14" s="66"/>
-      <c r="BD14" s="66"/>
-      <c r="BE14" s="66"/>
-      <c r="BF14" s="66"/>
-      <c r="BG14" s="66"/>
-      <c r="BH14" s="66"/>
-      <c r="BI14" s="67"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="67"/>
+      <c r="AM14" s="67"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="67"/>
+      <c r="AR14" s="67"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="67"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="67"/>
+      <c r="AW14" s="67"/>
+      <c r="AX14" s="67"/>
+      <c r="AY14" s="67"/>
+      <c r="AZ14" s="67"/>
+      <c r="BA14" s="67"/>
+      <c r="BB14" s="67"/>
+      <c r="BC14" s="67"/>
+      <c r="BD14" s="67"/>
+      <c r="BE14" s="67"/>
+      <c r="BF14" s="67"/>
+      <c r="BG14" s="67"/>
+      <c r="BH14" s="67"/>
+      <c r="BI14" s="68"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -14900,7 +14946,7 @@
       <c r="IW14" s="1"/>
       <c r="IX14" s="1"/>
     </row>
-    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -15160,74 +15206,74 @@
       <c r="IW15" s="1"/>
       <c r="IX15" s="1"/>
     </row>
-    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62" t="s">
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="60"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="60"/>
+      <c r="AP16" s="60"/>
+      <c r="AQ16" s="60"/>
+      <c r="AR16" s="60"/>
+      <c r="AS16" s="60"/>
+      <c r="AT16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="62"/>
-      <c r="AZ16" s="62"/>
-      <c r="BA16" s="62"/>
-      <c r="BB16" s="62"/>
-      <c r="BC16" s="62"/>
-      <c r="BD16" s="62"/>
-      <c r="BE16" s="62"/>
-      <c r="BF16" s="62"/>
-      <c r="BG16" s="62"/>
-      <c r="BH16" s="62"/>
-      <c r="BI16" s="62"/>
+      <c r="AU16" s="60"/>
+      <c r="AV16" s="60"/>
+      <c r="AW16" s="60"/>
+      <c r="AX16" s="60"/>
+      <c r="AY16" s="60"/>
+      <c r="AZ16" s="60"/>
+      <c r="BA16" s="60"/>
+      <c r="BB16" s="60"/>
+      <c r="BC16" s="60"/>
+      <c r="BD16" s="60"/>
+      <c r="BE16" s="60"/>
+      <c r="BF16" s="60"/>
+      <c r="BG16" s="60"/>
+      <c r="BH16" s="60"/>
+      <c r="BI16" s="60"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
@@ -15426,7 +15472,7 @@
       <c r="IW16" s="1"/>
       <c r="IX16" s="1"/>
     </row>
-    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -15686,7 +15732,7 @@
       <c r="IW17" s="1"/>
       <c r="IX17" s="1"/>
     </row>
-    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="D18" s="15"/>
@@ -15945,7 +15991,7 @@
       <c r="IW18" s="1"/>
       <c r="IX18" s="1"/>
     </row>
-    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="D19" s="15"/>
@@ -16203,7 +16249,7 @@
       <c r="IW19" s="1"/>
       <c r="IX19" s="1"/>
     </row>
-    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="D20" s="15"/>
@@ -16462,7 +16508,7 @@
       <c r="IW20" s="1"/>
       <c r="IX20" s="1"/>
     </row>
-    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="D21" s="15"/>
@@ -16721,7 +16767,7 @@
       <c r="IW21" s="1"/>
       <c r="IX21" s="1"/>
     </row>
-    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="D22" s="15"/>
@@ -16980,7 +17026,7 @@
       <c r="IW22" s="1"/>
       <c r="IX22" s="1"/>
     </row>
-    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="28"/>
       <c r="C23" s="3"/>
@@ -17230,7 +17276,7 @@
       <c r="IW23" s="1"/>
       <c r="IX23" s="1"/>
     </row>
-    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -17483,7 +17529,7 @@
       <c r="IW24" s="1"/>
       <c r="IX24" s="1"/>
     </row>
-    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -17740,7 +17786,7 @@
       <c r="IW25" s="1"/>
       <c r="IX25" s="1"/>
     </row>
-    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -17997,7 +18043,7 @@
       <c r="IW26" s="1"/>
       <c r="IX26" s="1"/>
     </row>
-    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -18257,7 +18303,7 @@
       <c r="IW27" s="1"/>
       <c r="IX27" s="1"/>
     </row>
-    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -18509,7 +18555,7 @@
       <c r="IW28" s="1"/>
       <c r="IX28" s="1"/>
     </row>
-    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
@@ -18761,7 +18807,7 @@
       <c r="IW29" s="1"/>
       <c r="IX29" s="1"/>
     </row>
-    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="28"/>
       <c r="C30" s="3"/>
@@ -19010,7 +19056,7 @@
       <c r="IW30" s="1"/>
       <c r="IX30" s="1"/>
     </row>
-    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -19257,7 +19303,7 @@
       <c r="IW31" s="1"/>
       <c r="IX31" s="1"/>
     </row>
-    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -19505,7 +19551,7 @@
       <c r="IW32" s="1"/>
       <c r="IX32" s="1"/>
     </row>
-    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="28"/>
       <c r="C33" s="3"/>
@@ -19757,7 +19803,7 @@
       <c r="IW33" s="1"/>
       <c r="IX33" s="1"/>
     </row>
-    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="28"/>
       <c r="C34" s="3"/>
@@ -20006,7 +20052,7 @@
       <c r="IW34" s="1"/>
       <c r="IX34" s="1"/>
     </row>
-    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -20266,7 +20312,7 @@
       <c r="IW35" s="1"/>
       <c r="IX35" s="1"/>
     </row>
-    <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -20526,7 +20572,7 @@
       <c r="IW36" s="1"/>
       <c r="IX36" s="1"/>
     </row>
-    <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="46"/>
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
@@ -20788,6 +20834,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="P14:BI14"/>
+    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="P16:AS16"/>
+    <mergeCell ref="AT16:BI16"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="P13:BI13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
@@ -20804,45 +20882,13 @@
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="P13:BI13"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="P14:BI14"/>
-    <mergeCell ref="A16:O16"/>
-    <mergeCell ref="P16:AS16"/>
-    <mergeCell ref="AT16:BI16"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"引数,戻り値,例外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A11:A13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A11:A13" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"引数,戻り値,例外,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20854,12 +20900,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20995,15 +21038,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="75fae816-41bf-471e-909f-5205fc9f8b57"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21027,17 +21081,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="75fae816-41bf-471e-909f-5205fc9f8b57"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>